--- a/Supervised Learning/Decision Tree/Term/Hp.xlsx
+++ b/Supervised Learning/Decision Tree/Term/Hp.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830"/>
+    <workbookView windowWidth="20490" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="31">
   <si>
     <t>Handphone</t>
   </si>
@@ -114,10 +115,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -128,9 +129,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,6 +175,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -176,7 +236,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,29 +251,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,43 +272,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -281,187 +282,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,11 +478,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +504,47 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -513,62 +568,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,148 +578,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,8 +1048,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1317,4 +1318,280 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="25.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>1.2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>3.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>